--- a/企画書/22310056【紺野蒼生】個人製作企画書①.xlsx
+++ b/企画書/22310056【紺野蒼生】個人製作企画書①.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konno Aoi\Documents\国際情報工科自動車大学校\教科\システム開発\企画書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konno Aoi\Documents\国際情報工科自動車大学校\教科\システム開発Ⅰ\22310056-KonnoAoi\企画書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09342357-EE1F-4F8A-B5EA-C97CB5E2ED75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0232C0B1-4B6D-444E-B612-F38EC0BBC61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="0" windowWidth="9890" windowHeight="10080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="90" windowWidth="11950" windowHeight="10080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="12" r:id="rId1"/>
@@ -1088,7 +1088,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,24 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="31">
@@ -2583,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5574132-C5A3-40C0-A9B8-5534910097FE}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:M41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2594,98 +2594,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
     </row>
     <row r="5" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2934,118 +2934,118 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -3090,31 +3090,31 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
     </row>
     <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
@@ -3122,31 +3122,31 @@
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
     </row>
     <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
@@ -3154,31 +3154,31 @@
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
     </row>
     <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
@@ -3186,31 +3186,31 @@
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
     </row>
     <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
@@ -3218,31 +3218,31 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
     </row>
     <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
@@ -3250,31 +3250,31 @@
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="29"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="15"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
@@ -3282,31 +3282,31 @@
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
     </row>
     <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
@@ -3314,31 +3314,31 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
@@ -3377,204 +3377,1327 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="10" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="20"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="26"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="23"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="29"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="23"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="29"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="23"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="29"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="23"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="29"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="23"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="29"/>
     </row>
     <row r="41" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="26"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="32"/>
+    </row>
+    <row r="42" spans="1:26" ht="9.65" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:Z31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:Z32"/>
+    <mergeCell ref="A35:M41"/>
+    <mergeCell ref="N35:Z41"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:Z28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:Z29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:Z30"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:Z25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:Z26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:Z27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:Z24"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="A2:Z4"/>
+    <mergeCell ref="A7:Z10"/>
+    <mergeCell ref="A13:Z16"/>
+    <mergeCell ref="A19:Z22"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.55000000000000004" bottom="0.55000000000000004" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B550DA6-F232-423F-B60F-FCBE59D711FE}">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.9140625" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C334A-104D-44A2-89B3-1072FF03BC1C}">
+  <dimension ref="A1:Z42"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:Z10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="26" width="3.1640625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+    </row>
+    <row r="5" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" ht="7.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>6</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+    </row>
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>7</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+    </row>
+    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>8</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+    </row>
+    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="5"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="26"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="29"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="29"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="29"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="29"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="29"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="32"/>
     </row>
     <row r="42" spans="1:26" ht="9.65" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -3612,1129 +4735,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B550DA6-F232-423F-B60F-FCBE59D711FE}">
-  <dimension ref="A2:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.9140625" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1C334A-104D-44A2-89B3-1072FF03BC1C}">
-  <dimension ref="A1:Z42"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Z10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="26" width="3.1640625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="12.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="W1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-    </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-    </row>
-    <row r="5" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" ht="7.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-    </row>
-    <row r="23" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-    </row>
-    <row r="25" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>1</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-    </row>
-    <row r="26" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-    </row>
-    <row r="27" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>3</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-    </row>
-    <row r="28" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>4</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-    </row>
-    <row r="29" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>5</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-    </row>
-    <row r="30" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>6</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-    </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>7</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-    </row>
-    <row r="32" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>8</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-    </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="5"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="20"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="23"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="23"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="23"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="23"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="23"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="26"/>
-    </row>
-    <row r="42" spans="1:26" ht="9.65" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:Z31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:Z32"/>
-    <mergeCell ref="A35:M41"/>
-    <mergeCell ref="N35:Z41"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:Z28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:Z29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:Z30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:Z25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:Z26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:Z27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:Z24"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="A2:Z4"/>
-    <mergeCell ref="A7:Z10"/>
-    <mergeCell ref="A13:Z16"/>
-    <mergeCell ref="A19:Z22"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.55000000000000004" bottom="0.55000000000000004" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D60B20-F156-43FF-9B06-2611BF62DFDD}">
   <dimension ref="A2:D8"/>
@@ -4856,6 +4856,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100607CFEA9279ED04E9D3ED0C5CB906D80" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="512ecd7edbafcd1ebf62fbb9f6d3da71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d287decf-c884-4834-8617-a14e3ef844bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54e415c3962f1bffb5891f93df98a945" ns2:_="">
     <xsd:import namespace="d287decf-c884-4834-8617-a14e3ef844bb"/>
@@ -5011,22 +5026,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC27DCD-7310-4DD2-A911-980BEC263333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9aaa2829-13f4-4386-8c7c-25caccd2f50b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C234AA-FB2C-46C2-97C1-B301B0DD0005}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B223FBE8-2DB6-425F-8345-6EA293EC9BB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5042,22 +5060,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C234AA-FB2C-46C2-97C1-B301B0DD0005}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC27DCD-7310-4DD2-A911-980BEC263333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9aaa2829-13f4-4386-8c7c-25caccd2f50b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>